--- a/tests/robot_framework/files/testdossiers/woo6/inventory.xlsx
+++ b/tests/robot_framework/files/testdossiers/woo6/inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/testdossiers/woo6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF5208-CC00-2A47-85CD-C6314D60C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C9373-85BD-884C-8C71-71A326B032BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
         <v>191199</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>191199</v>
@@ -561,7 +561,7 @@
         <v>191201</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>191200</v>
@@ -593,7 +593,7 @@
         <v>191202</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>191200</v>
@@ -625,7 +625,7 @@
         <v>191203</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>191200</v>
@@ -657,7 +657,7 @@
         <v>191204</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>191200</v>
@@ -689,7 +689,7 @@
         <v>191206</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>191205</v>
@@ -718,7 +718,7 @@
         <v>191209</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>191209</v>
@@ -753,7 +753,7 @@
         <v>191215</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>191215</v>
@@ -788,7 +788,7 @@
         <v>191216</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>191215</v>
@@ -820,7 +820,7 @@
         <v>191219</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>191218</v>
@@ -852,7 +852,7 @@
         <v>191220</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>191220</v>
